--- a/www/verbs002.xlsx
+++ b/www/verbs002.xlsx
@@ -13,13 +13,19 @@
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4403" uniqueCount="3964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5404" uniqueCount="4226">
   <si>
     <t>עוֹמֵד
 ом[е]д</t>
@@ -15471,13 +15477,799 @@
   </si>
   <si>
     <t>соглашаться</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Названия строк</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>Количество по полю link</t>
+  </si>
+  <si>
+    <t>Названия столбцов</t>
+  </si>
+  <si>
+    <t>לִהְיוֹת</t>
+  </si>
+  <si>
+    <t>לַעֲמוֹד</t>
+  </si>
+  <si>
+    <t>לָגוּר</t>
+  </si>
+  <si>
+    <t>לָקוּם</t>
+  </si>
+  <si>
+    <t>לָבוֹא</t>
+  </si>
+  <si>
+    <t>לָרוּץ</t>
+  </si>
+  <si>
+    <t>לָנוּחַ</t>
+  </si>
+  <si>
+    <t>לָטוּס</t>
+  </si>
+  <si>
+    <t>לָשִׂים</t>
+  </si>
+  <si>
+    <t>לָשִׁיר</t>
+  </si>
+  <si>
+    <t>לָרִיב</t>
+  </si>
+  <si>
+    <t>לָזוּז</t>
+  </si>
+  <si>
+    <t>לִפְתּוֹחַ</t>
+  </si>
+  <si>
+    <t>לוֹמַר</t>
+  </si>
+  <si>
+    <t>לִשְׂמוֹחַ</t>
+  </si>
+  <si>
+    <t>לִנְסֹועַ</t>
+  </si>
+  <si>
+    <t>לָלֶכֶת</t>
+  </si>
+  <si>
+    <t>לַעֲבוֹד</t>
+  </si>
+  <si>
+    <t>לִכְתּוֹב</t>
+  </si>
+  <si>
+    <t>לִבְדּוֹק</t>
+  </si>
+  <si>
+    <t>לֶאֱכוֹל</t>
+  </si>
+  <si>
+    <t>לִגְמוֹר</t>
+  </si>
+  <si>
+    <t>לִשְׂכּוֹר</t>
+  </si>
+  <si>
+    <t>לַעֲצוֹר</t>
+  </si>
+  <si>
+    <t>לִקְבּוֹעַ</t>
+  </si>
+  <si>
+    <t>לַעֲזוֹר</t>
+  </si>
+  <si>
+    <t>לִשְׁלוֹחַ</t>
+  </si>
+  <si>
+    <t>לִרְכַּב</t>
+  </si>
+  <si>
+    <t>לִרְכֹּב</t>
+  </si>
+  <si>
+    <t>לִמְסוֹר</t>
+  </si>
+  <si>
+    <t>לִסְגּוֹר</t>
+  </si>
+  <si>
+    <t>לִקְנוֹת</t>
+  </si>
+  <si>
+    <t>לַעֲלוֹת</t>
+  </si>
+  <si>
+    <t>לִרְאוֹת</t>
+  </si>
+  <si>
+    <t>לַעֲנוֹת</t>
+  </si>
+  <si>
+    <t>לִשְׁתּוֹת</t>
+  </si>
+  <si>
+    <t>לִרְצוֹת</t>
+  </si>
+  <si>
+    <t>לְחַפֵּשׂ</t>
+  </si>
+  <si>
+    <t>לְבַקֵּשׁ</t>
+  </si>
+  <si>
+    <t>לְטַייֵּל</t>
+  </si>
+  <si>
+    <t>לְדַבֵּר</t>
+  </si>
+  <si>
+    <t>לְהַסְבִּיר</t>
+  </si>
+  <si>
+    <t>לְהַזְמִין</t>
+  </si>
+  <si>
+    <t>לְהַמְשִׁיךְ</t>
+  </si>
+  <si>
+    <t>לְהַכְנִיס</t>
+  </si>
+  <si>
+    <t>לְהִתְקַשֵּׁר</t>
+  </si>
+  <si>
+    <t>לְהִתְלַבֵּשׁ</t>
+  </si>
+  <si>
+    <t>לְהִתְפַּלֵּל</t>
+  </si>
+  <si>
+    <t>לְהִתְרַחֵץ</t>
+  </si>
+  <si>
+    <t>לְהִתְקַדֵּם</t>
+  </si>
+  <si>
+    <t>לְהִיכָּנֵס</t>
+  </si>
+  <si>
+    <t>לְהִישָּׁאֵר</t>
+  </si>
+  <si>
+    <t>לְהִיווָּלֵד</t>
+  </si>
+  <si>
+    <t>לְהִיפָּגֵשׁ</t>
+  </si>
+  <si>
+    <t>לאהוב</t>
+  </si>
+  <si>
+    <t>לַחשׁוֹב</t>
+  </si>
+  <si>
+    <t>להצטער</t>
+  </si>
+  <si>
+    <t>להבין</t>
+  </si>
+  <si>
+    <t>לָדַעַת</t>
+  </si>
+  <si>
+    <t>לְבַקֵּר</t>
+  </si>
+  <si>
+    <t>לְהַרְגִּישׁ</t>
+  </si>
+  <si>
+    <t>לִנְסוֹעַ</t>
+  </si>
+  <si>
+    <t>לִקְרוֹא</t>
+  </si>
+  <si>
+    <t>לִשְׁמוֹר</t>
+  </si>
+  <si>
+    <t>לִמְכּוֹר</t>
+  </si>
+  <si>
+    <t>לְנַהֵל</t>
+  </si>
+  <si>
+    <t>לְהַנְדֵּס</t>
+  </si>
+  <si>
+    <t>לְהַפְקִיד</t>
+  </si>
+  <si>
+    <t>לִחְיוֹת</t>
+  </si>
+  <si>
+    <t>לוּכַל</t>
+  </si>
+  <si>
+    <t>ְהִישָּׁאֵר</t>
+  </si>
+  <si>
+    <t>לַחֲזֹר</t>
+  </si>
+  <si>
+    <t>לְקַוּוֹת</t>
+  </si>
+  <si>
+    <t>לְהִימָּצֵא</t>
+  </si>
+  <si>
+    <t>לִישׁוֹן</t>
+  </si>
+  <si>
+    <t>לְהַכִּיר</t>
+  </si>
+  <si>
+    <t>לְהַגִּיד</t>
+  </si>
+  <si>
+    <t>לִצְעוֹק</t>
+  </si>
+  <si>
+    <t>לְהַתְחִיל</t>
+  </si>
+  <si>
+    <t>לְבַשֵּׁל</t>
+  </si>
+  <si>
+    <t>לְהָכִין</t>
+  </si>
+  <si>
+    <t>לְסַפֵּר</t>
+  </si>
+  <si>
+    <t>לְשַׂחֵק</t>
+  </si>
+  <si>
+    <t>לִזְכּוֹר</t>
+  </si>
+  <si>
+    <t>לוֹקֵחַ</t>
+  </si>
+  <si>
+    <t>לְהַגִּיעַ</t>
+  </si>
+  <si>
+    <t>לְקַבֵּל</t>
+  </si>
+  <si>
+    <t>לָתֵת</t>
+  </si>
+  <si>
+    <t>לִבְנוֹת</t>
+  </si>
+  <si>
+    <t>לְלַמֵּד</t>
+  </si>
+  <si>
+    <t>לְסַייֵּם</t>
+  </si>
+  <si>
+    <t>לִשְׁכּוֹחַ</t>
+  </si>
+  <si>
+    <t>לִכְעוֹס</t>
+  </si>
+  <si>
+    <t>לִתְפּוֹשׂ</t>
+  </si>
+  <si>
+    <t>לְהִתְחַתֵּן</t>
+  </si>
+  <si>
+    <t>לְהַסְכִּים</t>
+  </si>
+  <si>
+    <t>לִפְגּוֹשׁ</t>
+  </si>
+  <si>
+    <t>לַחֲזוֹר</t>
+  </si>
+  <si>
+    <t>לַחְזֹר</t>
+  </si>
+  <si>
+    <t>לִרְקוֹד</t>
+  </si>
+  <si>
+    <t>לָשֶׁבֶת</t>
+  </si>
+  <si>
+    <t>לַחְתּוֹם</t>
+  </si>
+  <si>
+    <t>לִשְׁאוֹל</t>
+  </si>
+  <si>
+    <t>לְבַקֵר</t>
+  </si>
+  <si>
+    <t>לָקַחַת</t>
+  </si>
+  <si>
+    <t>לְכַבֵּס</t>
+  </si>
+  <si>
+    <t>לְצַלֵּם</t>
+  </si>
+  <si>
+    <t>לְפַטֵּר</t>
+  </si>
+  <si>
+    <t>לְטַפֵּל</t>
+  </si>
+  <si>
+    <t>לְנַגֵּן</t>
+  </si>
+  <si>
+    <t>לְתַקֵּן</t>
+  </si>
+  <si>
+    <t>לְסַדֵּר</t>
+  </si>
+  <si>
+    <t>לְהִשְׁתַּמֵּשׁ</t>
+  </si>
+  <si>
+    <t>לְתַרְגֵּם</t>
+  </si>
+  <si>
+    <t>טִיפַּלְתִּי</t>
+  </si>
+  <si>
+    <t>לְהִסְתַּכֵּל</t>
+  </si>
+  <si>
+    <t>הִסְתַּכַּלְתִּי</t>
+  </si>
+  <si>
+    <t>לִפְגּוֹעַ</t>
+  </si>
+  <si>
+    <t>לֶאֱסוֹר</t>
+  </si>
+  <si>
+    <t>לְהַשְׁפִּיעַ</t>
+  </si>
+  <si>
+    <t>לְהַמְלִיץ</t>
+  </si>
+  <si>
+    <t>הצטננתי</t>
+  </si>
+  <si>
+    <t>התחמם</t>
+  </si>
+  <si>
+    <t>התחתן</t>
+  </si>
+  <si>
+    <t>הצטלמתם</t>
+  </si>
+  <si>
+    <t>התרגשו</t>
+  </si>
+  <si>
+    <t>הזדקן</t>
+  </si>
+  <si>
+    <t>השתתפו</t>
+  </si>
+  <si>
+    <t>התקשר</t>
+  </si>
+  <si>
+    <t>מתקרר</t>
+  </si>
+  <si>
+    <t>להתכתב</t>
+  </si>
+  <si>
+    <t>להתקשר</t>
+  </si>
+  <si>
+    <t>להסתרר</t>
+  </si>
+  <si>
+    <t>להתפלל</t>
+  </si>
+  <si>
+    <t>להשתתף</t>
+  </si>
+  <si>
+    <t>להסתכל</t>
+  </si>
+  <si>
+    <t>להזדקן</t>
+  </si>
+  <si>
+    <t>להתנהג</t>
+  </si>
+  <si>
+    <t>להצטנן</t>
+  </si>
+  <si>
+    <t>להתקרם</t>
+  </si>
+  <si>
+    <t>להצטלם</t>
+  </si>
+  <si>
+    <t>להשתמש</t>
+  </si>
+  <si>
+    <t>התכתבן</t>
+  </si>
+  <si>
+    <t>התרחץ</t>
+  </si>
+  <si>
+    <t>התלבש</t>
+  </si>
+  <si>
+    <t>והסתרק</t>
+  </si>
+  <si>
+    <t>הסתכל</t>
+  </si>
+  <si>
+    <t>והתרגש</t>
+  </si>
+  <si>
+    <t>התנהג</t>
+  </si>
+  <si>
+    <t>והצטלמו</t>
+  </si>
+  <si>
+    <t>הצטער</t>
+  </si>
+  <si>
+    <t>והתכתבו</t>
+  </si>
+  <si>
+    <t>התחתנו</t>
+  </si>
+  <si>
+    <t>נרשמת</t>
+  </si>
+  <si>
+    <t>נכשלתי</t>
+  </si>
+  <si>
+    <t>נכרק</t>
+  </si>
+  <si>
+    <t>נגמרו</t>
+  </si>
+  <si>
+    <t>נפגשים</t>
+  </si>
+  <si>
+    <t>נזכרתי</t>
+  </si>
+  <si>
+    <t>נשארתי</t>
+  </si>
+  <si>
+    <t>להיפגש</t>
+  </si>
+  <si>
+    <t>להיבדק</t>
+  </si>
+  <si>
+    <t>להיסגר</t>
+  </si>
+  <si>
+    <t>להיתפס</t>
+  </si>
+  <si>
+    <t>להישלח</t>
+  </si>
+  <si>
+    <t>להיקלט</t>
+  </si>
+  <si>
+    <t>להיכשל</t>
+  </si>
+  <si>
+    <t>להיפרר</t>
+  </si>
+  <si>
+    <t>להירטב</t>
+  </si>
+  <si>
+    <t>להירשם</t>
+  </si>
+  <si>
+    <t>להיחתם</t>
+  </si>
+  <si>
+    <t>נפתחה</t>
+  </si>
+  <si>
+    <t>נבנס</t>
+  </si>
+  <si>
+    <t>נסגרה</t>
+  </si>
+  <si>
+    <t>נרטב</t>
+  </si>
+  <si>
+    <t>נכשל</t>
+  </si>
+  <si>
+    <t>ונשברה</t>
+  </si>
+  <si>
+    <t>נפרר</t>
+  </si>
+  <si>
+    <t>נחתם</t>
+  </si>
+  <si>
+    <t>נכתב</t>
+  </si>
+  <si>
+    <t>נשלח</t>
+  </si>
+  <si>
+    <t>נזכר</t>
+  </si>
+  <si>
+    <t>נפסק</t>
+  </si>
+  <si>
+    <t>נסגר</t>
+  </si>
+  <si>
+    <t>לַעֲמֹד</t>
+  </si>
+  <si>
+    <t>לָלוּשׁ</t>
+  </si>
+  <si>
+    <t>לִפְתֹּחַ</t>
+  </si>
+  <si>
+    <t>לִשְׂמֹחַ</t>
+  </si>
+  <si>
+    <t>לִנְסֹעַ</t>
+  </si>
+  <si>
+    <t>לַעֲבֹד</t>
+  </si>
+  <si>
+    <t>לִכְתֹּב</t>
+  </si>
+  <si>
+    <t>לִבְדֹּק</t>
+  </si>
+  <si>
+    <t>לֶאֱכֹל</t>
+  </si>
+  <si>
+    <t>לִגְמֹר</t>
+  </si>
+  <si>
+    <t>לִשְׂכֹּר</t>
+  </si>
+  <si>
+    <t>לַעֲצֹר</t>
+  </si>
+  <si>
+    <t>לִקְבֹּעַ</t>
+  </si>
+  <si>
+    <t>לַעֲזֹר</t>
+  </si>
+  <si>
+    <t>לִשְׁלֹחַ</t>
+  </si>
+  <si>
+    <t>לִמְסֹר</t>
+  </si>
+  <si>
+    <t>לִסְגֹּר</t>
+  </si>
+  <si>
+    <t>לִשְׁתֹּת</t>
+  </si>
+  <si>
+    <t>לְטַיֵּל</t>
+  </si>
+  <si>
+    <t>לְהִכָּנֵס</t>
+  </si>
+  <si>
+    <t>לְהִשָּׁאֵר</t>
+  </si>
+  <si>
+    <t>לְהִוָּלֵד</t>
+  </si>
+  <si>
+    <t>לְהִפָּגֵשׁ</t>
+  </si>
+  <si>
+    <t>לֶאֱהֹב</t>
+  </si>
+  <si>
+    <t>לַחְשֹׁב</t>
+  </si>
+  <si>
+    <t>לְהִצְטַעֵר</t>
+  </si>
+  <si>
+    <t>לְהָבִין</t>
+  </si>
+  <si>
+    <t>לִקְרֹא</t>
+  </si>
+  <si>
+    <t>לִשְׁמֹר</t>
+  </si>
+  <si>
+    <t>לִמְכֹּר</t>
+  </si>
+  <si>
+    <t>לְחַזֵּר</t>
+  </si>
+  <si>
+    <t>לְהִמָּצֵא</t>
+  </si>
+  <si>
+    <t>לִישֹׁן</t>
+  </si>
+  <si>
+    <t>לִצְעֹק</t>
+  </si>
+  <si>
+    <t>לִזְכֹּר</t>
+  </si>
+  <si>
+    <t>לְסַיֵּם</t>
+  </si>
+  <si>
+    <t>לִשְׁכֹּחַ</t>
+  </si>
+  <si>
+    <t>לִכְעֹס</t>
+  </si>
+  <si>
+    <t>לִתְפֹּשׂ</t>
+  </si>
+  <si>
+    <t>לִפְגֹּשׁ</t>
+  </si>
+  <si>
+    <t>לִרְקֹד</t>
+  </si>
+  <si>
+    <t>לַחְתֹּם</t>
+  </si>
+  <si>
+    <t>לִשְׁאֹל</t>
+  </si>
+  <si>
+    <t>לִפְגֹּעַ</t>
+  </si>
+  <si>
+    <t>לֶאֱסֹר</t>
+  </si>
+  <si>
+    <t>לְהִצְטַנֵּן</t>
+  </si>
+  <si>
+    <t>לְהִתְחַמֵּם</t>
+  </si>
+  <si>
+    <t>לְהִצְטַלֵּם</t>
+  </si>
+  <si>
+    <t>לְהִתְרַגֵּשׁ</t>
+  </si>
+  <si>
+    <t>לְהִזְדַּקֵּן</t>
+  </si>
+  <si>
+    <t>לְהִשְׁתַּתֵּף</t>
+  </si>
+  <si>
+    <t>לְהִתְקָרֵר</t>
+  </si>
+  <si>
+    <t>לְהִתְנַהֵג</t>
+  </si>
+  <si>
+    <t>לְהִסְתָּרֵק</t>
+  </si>
+  <si>
+    <t>לְהֵרָשֵׁם</t>
+  </si>
+  <si>
+    <t>לְהִכָּשֵׁל</t>
+  </si>
+  <si>
+    <t>לְהִגָּמֵר</t>
+  </si>
+  <si>
+    <t>לְהִזָּכֵר</t>
+  </si>
+  <si>
+    <t>לְהִבָּדֵק</t>
+  </si>
+  <si>
+    <t>לְהִסָּגֵר</t>
+  </si>
+  <si>
+    <t>לְהִתָּפֵשׂ</t>
+  </si>
+  <si>
+    <t>לְהִשָּׁלֵחַ</t>
+  </si>
+  <si>
+    <t>לְהִקָּלֵט</t>
+  </si>
+  <si>
+    <t>לְהֵרָטֵב</t>
+  </si>
+  <si>
+    <t>לְהֵחָתֵם</t>
+  </si>
+  <si>
+    <t>לְהִפָּתֵחַ</t>
+  </si>
+  <si>
+    <t>לְהִשָּׁבֵר</t>
+  </si>
+  <si>
+    <t>לְהִכָּתֵב</t>
+  </si>
+  <si>
+    <t>לְהִפָּסֵק</t>
+  </si>
+  <si>
+    <t>לְהִתְכַּתֵּב</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -15490,6 +16282,19 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF080808"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -15499,7 +16304,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -15507,16 +16312,178 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -15532,6 +16499,1845 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Den" refreshedDate="45522.12974502315" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="267">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B268" sheet="Лист1"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="link" numFmtId="0">
+      <sharedItems count="138">
+        <s v="/ru/dict/454-lihyot/"/>
+        <s v="/ru/dict/8-laamod/"/>
+        <s v="/ru/dict/4-lagur/"/>
+        <s v="/ru/dict/1876-lakum/"/>
+        <s v="/ru/dict/28-lavo/"/>
+        <s v="/ru/dict/11-larutz/"/>
+        <s v="/ru/dict/1164-lanuach/"/>
+        <s v="/ru/dict/740-latus/"/>
+        <s v="/ru/dict/989-lalush/"/>
+        <s v="/ru/dict/5-lashir/"/>
+        <s v="/ru/dict/2035-lariv/"/>
+        <s v="/ru/dict/493-lazuz/"/>
+        <s v="/ru/dict/1747-liftoach/"/>
+        <s v="/ru/dict/55-lomar/"/>
+        <s v="/ru/dict/2241-lismoach/"/>
+        <s v="/ru/dict/1215-linsoa/"/>
+        <s v="/ru/dict/7-lalechet/"/>
+        <s v="/ru/dict/51-laavod/"/>
+        <s v="/ru/dict/1-lichtov/"/>
+        <s v="/ru/dict/177-livdok/"/>
+        <s v="/ru/dict/30-leechol/"/>
+        <s v="/ru/dict/351-ligmor/"/>
+        <s v="/ru/dict/2208-liskor/"/>
+        <s v="/ru/dict/1542-laatzor/"/>
+        <s v="/ru/dict/1853-likboa/"/>
+        <s v="/ru/dict/46-laazor/"/>
+        <s v="/ru/dict/2220-lishloach/"/>
+        <s v="/ru/dict/2040-lirkav/"/>
+        <s v="/ru/dict/1072-limsor/"/>
+        <s v="/ru/dict/1314-lisgor/"/>
+        <s v="/ru/dict/1913-liknot/"/>
+        <s v="/ru/dict/26-laalot/"/>
+        <s v="/ru/dict/1972-lirot/"/>
+        <s v="/ru/dict/40-laanot/"/>
+        <s v="/ru/dict/2340-lishtot/"/>
+        <s v="/ru/dict/12-lirtzot/"/>
+        <s v="/ru/dict/663-lechapes/"/>
+        <s v="/ru/dict/255-levakesh/"/>
+        <s v="/ru/dict/743-letayel/"/>
+        <s v="/ru/dict/2-ledaber/"/>
+        <s v="/ru/dict/1305-lehasbir/"/>
+        <s v="/ru/dict/509-lehazmin/"/>
+        <s v="/ru/dict/1110-lehamshich/"/>
+        <s v="/ru/dict/919-lehachnis/"/>
+        <s v="/ru/dict/1971-lehitkasher/"/>
+        <s v="/ru/dict/974-lehitlabesh/"/>
+        <s v="/ru/dict/2435-lehitpalel/"/>
+        <s v="/ru/dict/2023-lehitrachetz/"/>
+        <s v="/ru/dict/1865-lehitkadem/"/>
+        <s v="/ru/dict/918-lehikanes/"/>
+        <s v="/ru/dict/47-lehishaer/"/>
+        <s v="/ru/dict/800-lehivaled/"/>
+        <s v="/ru/dict/1593-lehipagesh/"/>
+        <s v="/ru/dict/67-leehov/"/>
+        <s v="/ru/dict/700-lachshov/"/>
+        <s v="/ru/dict/1826-lehitztaer/"/>
+        <s v="/ru/dict/217-lehavin/"/>
+        <s v="/ru/dict/791-ladaat/"/>
+        <s v="/ru/dict/254-levaker/"/>
+        <s v="/ru/dict/1993-lehargish/"/>
+        <s v="/ru/dict/13-likro/"/>
+        <s v="/ru/dict/2255-lishmor/"/>
+        <s v="/ru/dict/43-limkor/"/>
+        <s v="/ru/dict/1156-lenahel/"/>
+        <s v="/ru/dict/4091-lehandes/"/>
+        <s v="/ru/dict/1680-lehafkid/"/>
+        <s v="/ru/dict/797-lichyot/"/>
+        <s v="/ru/dict/795-luchal/"/>
+        <s v="/ru/dict/580-lechazer/"/>
+        <s v="/ru/dict/1409-lesaper/"/>
+        <s v="/ru/dict/2172-lesachek/"/>
+        <s v="/ru/dict/34-lizkor/"/>
+        <s v="/ru/dict/2427-lakachat/"/>
+        <s v="/ru/dict/1141-lehagia/"/>
+        <s v="/ru/dict/1850-lekabel/"/>
+        <s v="/ru/dict/1285-latet/"/>
+        <s v="/ru/dict/234-livnot/"/>
+        <s v="/ru/dict/42-lelamed/"/>
+        <s v="/ru/dict/1343-lesayem/"/>
+        <s v="/ru/dict/36-lishkoach/"/>
+        <s v="/ru/dict/930-lichos/"/>
+        <s v="/ru/dict/2385-litpos/"/>
+        <s v="/ru/dict/724-lehitchaten/"/>
+        <s v="/ru/dict/1354-lehaskim/"/>
+        <s v="/ru/dict/1592-lifgosh/"/>
+        <s v="/ru/dict/48-lachazor/"/>
+        <s v="/ru/dict/38-lirkod/"/>
+        <s v="/ru/dict/9-lashevet/"/>
+        <s v="/ru/dict/721-lachtom/"/>
+        <s v="/ru/dict/39-lishol/"/>
+        <s v="/ru/dict/885-lechabes/"/>
+        <s v="/ru/dict/1802-letzalem/"/>
+        <s v="/ru/dict/1626-lefater/"/>
+        <s v="/ru/dict/761-letapel/"/>
+        <s v="/ru/dict/14-lenagen/"/>
+        <s v="/ru/dict/2392-letaken/"/>
+        <s v="/ru/dict/1320-lesader/"/>
+        <s v="/ru/dict/2260-lehishtamesh/"/>
+        <s v="/ru/dict/2401-letargem/"/>
+        <s v="/ru/dict/1352-lehistakel/"/>
+        <s v="/ru/dict/1590-lifgoa/"/>
+        <s v="/ru/dict/131-leesor/"/>
+        <s v="/ru/dict/2290-lehashpia/"/>
+        <s v="/ru/dict/1061-lehamlitz/"/>
+        <s v="/ru/dict/1819-lehitztanen/"/>
+        <s v="/ru/dict/622-lehitchamem/"/>
+        <s v="/ru/dict/1803-lehitztalem/"/>
+        <s v="/ru/dict/1995-lehitragesh/"/>
+        <s v="/ru/dict/521-lehizdaken/"/>
+        <s v="/ru/dict/2335-lehishtatef/"/>
+        <s v="/ru/dict/1959-lehitkarer/"/>
+        <s v="/ru/dict/960-lehitkatev/"/>
+        <s v="/ru/dict/1155-lehitnaheg/"/>
+        <s v="/ru/dict/1429-lehistarek/"/>
+        <s v="/ru/dict/2104-leherashem/"/>
+        <s v="/ru/dict/954-lehikashel/"/>
+        <s v="/ru/dict/352-lehigamer/"/>
+        <s v="/ru/dict/504-lehizacher/"/>
+        <s v="/ru/dict/178-lehibadek/"/>
+        <s v="/ru/dict/1315-lehisager/"/>
+        <s v="/ru/dict/2386-lehitafes/"/>
+        <s v="/ru/dict/2221-lehishaleach/"/>
+        <s v="/ru/dict/1898-lehikalet/"/>
+        <s v="/ru/dict/2029-leheratev/"/>
+        <s v="/ru/dict/722-lehechatem/"/>
+        <s v="/ru/dict/1748-lehipateach/"/>
+        <s v="/ru/dict/2136-lehishaver/"/>
+        <s v="/ru/dict/958-lehikatev/"/>
+        <s v="/ru/dict/1656-lehipasek/"/>
+        <s v="/ru/dict/1874-lekavot/"/>
+        <s v="/ru/dict/1084-lehimatze/"/>
+        <s v="/ru/dict/860-lishon/"/>
+        <s v="/ru/dict/44-lehakir/"/>
+        <s v="/ru/dict/1135-lehagid/"/>
+        <s v="/ru/dict/1824-litzok/"/>
+        <s v="/ru/dict/2359-lehatchil/"/>
+        <s v="/ru/dict/273-levashel/"/>
+        <s v="/ru/dict/893-lehachin/"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="source" numFmtId="0">
+      <sharedItems count="2">
+        <s v="db"/>
+        <s v="excel"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="267">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="137"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D143" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="139">
+        <item x="103"/>
+        <item x="28"/>
+        <item x="130"/>
+        <item x="42"/>
+        <item x="133"/>
+        <item x="73"/>
+        <item x="112"/>
+        <item x="63"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="75"/>
+        <item x="35"/>
+        <item x="40"/>
+        <item x="29"/>
+        <item x="119"/>
+        <item x="101"/>
+        <item x="96"/>
+        <item x="78"/>
+        <item x="99"/>
+        <item x="83"/>
+        <item x="60"/>
+        <item x="69"/>
+        <item x="113"/>
+        <item x="94"/>
+        <item x="23"/>
+        <item x="100"/>
+        <item x="84"/>
+        <item x="52"/>
+        <item x="92"/>
+        <item x="128"/>
+        <item x="65"/>
+        <item x="12"/>
+        <item x="125"/>
+        <item x="19"/>
+        <item x="118"/>
+        <item x="91"/>
+        <item x="106"/>
+        <item x="104"/>
+        <item x="134"/>
+        <item x="55"/>
+        <item x="74"/>
+        <item x="24"/>
+        <item x="48"/>
+        <item x="129"/>
+        <item x="3"/>
+        <item x="122"/>
+        <item x="30"/>
+        <item x="110"/>
+        <item x="44"/>
+        <item x="32"/>
+        <item x="59"/>
+        <item x="107"/>
+        <item x="18"/>
+        <item x="47"/>
+        <item x="123"/>
+        <item x="10"/>
+        <item x="27"/>
+        <item x="114"/>
+        <item x="126"/>
+        <item x="70"/>
+        <item x="56"/>
+        <item x="22"/>
+        <item x="26"/>
+        <item x="121"/>
+        <item x="14"/>
+        <item x="61"/>
+        <item x="97"/>
+        <item x="102"/>
+        <item x="109"/>
+        <item x="34"/>
+        <item x="76"/>
+        <item x="135"/>
+        <item x="81"/>
+        <item x="120"/>
+        <item x="95"/>
+        <item x="98"/>
+        <item x="72"/>
+        <item x="46"/>
+        <item x="58"/>
+        <item x="37"/>
+        <item x="31"/>
+        <item x="136"/>
+        <item x="4"/>
+        <item x="39"/>
+        <item x="20"/>
+        <item x="71"/>
+        <item x="21"/>
+        <item x="116"/>
+        <item x="79"/>
+        <item x="86"/>
+        <item x="89"/>
+        <item x="64"/>
+        <item x="33"/>
+        <item x="77"/>
+        <item x="62"/>
+        <item x="132"/>
+        <item x="0"/>
+        <item x="25"/>
+        <item x="50"/>
+        <item x="85"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="117"/>
+        <item x="41"/>
+        <item x="17"/>
+        <item x="108"/>
+        <item x="13"/>
+        <item x="68"/>
+        <item x="9"/>
+        <item x="105"/>
+        <item x="36"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="88"/>
+        <item x="124"/>
+        <item x="82"/>
+        <item x="7"/>
+        <item x="38"/>
+        <item x="93"/>
+        <item x="57"/>
+        <item x="67"/>
+        <item x="66"/>
+        <item x="16"/>
+        <item x="51"/>
+        <item x="131"/>
+        <item x="90"/>
+        <item x="137"/>
+        <item x="1"/>
+        <item x="49"/>
+        <item x="43"/>
+        <item x="80"/>
+        <item x="115"/>
+        <item x="127"/>
+        <item x="111"/>
+        <item x="45"/>
+        <item x="8"/>
+        <item x="87"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="139">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="124"/>
+    </i>
+    <i>
+      <x v="125"/>
+    </i>
+    <i>
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="127"/>
+    </i>
+    <i>
+      <x v="128"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="130"/>
+    </i>
+    <i>
+      <x v="131"/>
+    </i>
+    <i>
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="133"/>
+    </i>
+    <i>
+      <x v="134"/>
+    </i>
+    <i>
+      <x v="135"/>
+    </i>
+    <i>
+      <x v="136"/>
+    </i>
+    <i>
+      <x v="137"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю link" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15823,8 +18629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -29350,4 +32156,6273 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D143"/>
+  <sheetViews>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="23.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" customWidth="1"/>
+    <col min="3" max="3" width="4.73046875" customWidth="1"/>
+    <col min="4" max="4" width="10.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3971</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3965</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>3964</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="B6" s="19">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="10" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="19">
+        <v>1</v>
+      </c>
+      <c r="C13" s="20">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" s="19">
+        <v>1</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="10" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1</v>
+      </c>
+      <c r="C17" s="20">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="10" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1</v>
+      </c>
+      <c r="C18" s="20">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="20">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="10" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B20" s="19">
+        <v>1</v>
+      </c>
+      <c r="C20" s="20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="10" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B21" s="19">
+        <v>1</v>
+      </c>
+      <c r="C21" s="20">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="10" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B22" s="19">
+        <v>1</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="10" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B23" s="19">
+        <v>1</v>
+      </c>
+      <c r="C23" s="20">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="10" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B24" s="19">
+        <v>1</v>
+      </c>
+      <c r="C24" s="20">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="10" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B25" s="19">
+        <v>1</v>
+      </c>
+      <c r="C25" s="20">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="10" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B26" s="19">
+        <v>1</v>
+      </c>
+      <c r="C26" s="20">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="10" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B27" s="19">
+        <v>1</v>
+      </c>
+      <c r="C27" s="20">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="10" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B28" s="19">
+        <v>1</v>
+      </c>
+      <c r="C28" s="20">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="10" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B29" s="19">
+        <v>1</v>
+      </c>
+      <c r="C29" s="20">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="B30" s="19">
+        <v>1</v>
+      </c>
+      <c r="C30" s="20">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="10" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B31" s="19">
+        <v>1</v>
+      </c>
+      <c r="C31" s="20">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="10" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B32" s="19">
+        <v>1</v>
+      </c>
+      <c r="C32" s="20">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="10" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B33" s="19">
+        <v>1</v>
+      </c>
+      <c r="C33" s="20">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="10" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B34" s="19">
+        <v>1</v>
+      </c>
+      <c r="C34" s="20">
+        <v>1</v>
+      </c>
+      <c r="D34" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="10" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B35" s="19">
+        <v>1</v>
+      </c>
+      <c r="C35" s="20">
+        <v>1</v>
+      </c>
+      <c r="D35" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="10" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B36" s="19">
+        <v>1</v>
+      </c>
+      <c r="C36" s="20">
+        <v>1</v>
+      </c>
+      <c r="D36" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B37" s="19">
+        <v>1</v>
+      </c>
+      <c r="C37" s="20">
+        <v>1</v>
+      </c>
+      <c r="D37" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="10" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B38" s="19">
+        <v>1</v>
+      </c>
+      <c r="C38" s="20">
+        <v>1</v>
+      </c>
+      <c r="D38" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B39" s="19">
+        <v>1</v>
+      </c>
+      <c r="C39" s="20">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="10" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B40" s="19">
+        <v>1</v>
+      </c>
+      <c r="C40" s="20">
+        <v>1</v>
+      </c>
+      <c r="D40" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="10" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B41" s="19">
+        <v>1</v>
+      </c>
+      <c r="C41" s="20">
+        <v>1</v>
+      </c>
+      <c r="D41" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="10" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B42" s="19">
+        <v>1</v>
+      </c>
+      <c r="C42" s="20">
+        <v>1</v>
+      </c>
+      <c r="D42" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="10" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B43" s="19">
+        <v>1</v>
+      </c>
+      <c r="C43" s="20">
+        <v>1</v>
+      </c>
+      <c r="D43" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="10" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20">
+        <v>1</v>
+      </c>
+      <c r="D44" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="10" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B45" s="19">
+        <v>1</v>
+      </c>
+      <c r="C45" s="20">
+        <v>1</v>
+      </c>
+      <c r="D45" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="10" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B46" s="19">
+        <v>1</v>
+      </c>
+      <c r="C46" s="20">
+        <v>1</v>
+      </c>
+      <c r="D46" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="B47" s="19">
+        <v>1</v>
+      </c>
+      <c r="C47" s="20">
+        <v>1</v>
+      </c>
+      <c r="D47" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="10" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B48" s="19">
+        <v>1</v>
+      </c>
+      <c r="C48" s="20">
+        <v>1</v>
+      </c>
+      <c r="D48" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="10" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20">
+        <v>1</v>
+      </c>
+      <c r="D49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="19">
+        <v>1</v>
+      </c>
+      <c r="C50" s="20">
+        <v>1</v>
+      </c>
+      <c r="D50" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="10" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B51" s="19">
+        <v>1</v>
+      </c>
+      <c r="C51" s="20">
+        <v>1</v>
+      </c>
+      <c r="D51" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="B52" s="19">
+        <v>1</v>
+      </c>
+      <c r="C52" s="20">
+        <v>1</v>
+      </c>
+      <c r="D52" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" s="10" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B53" s="19">
+        <v>1</v>
+      </c>
+      <c r="C53" s="20">
+        <v>1</v>
+      </c>
+      <c r="D53" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" s="10" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B54" s="19">
+        <v>1</v>
+      </c>
+      <c r="C54" s="20">
+        <v>1</v>
+      </c>
+      <c r="D54" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="B55" s="19">
+        <v>1</v>
+      </c>
+      <c r="C55" s="20">
+        <v>1</v>
+      </c>
+      <c r="D55" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" s="10" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B56" s="19">
+        <v>1</v>
+      </c>
+      <c r="C56" s="20">
+        <v>1</v>
+      </c>
+      <c r="D56" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" s="10" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B57" s="19">
+        <v>1</v>
+      </c>
+      <c r="C57" s="20">
+        <v>1</v>
+      </c>
+      <c r="D57" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B58" s="19">
+        <v>1</v>
+      </c>
+      <c r="C58" s="20">
+        <v>1</v>
+      </c>
+      <c r="D58" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" s="10" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B59" s="19">
+        <v>1</v>
+      </c>
+      <c r="C59" s="20">
+        <v>1</v>
+      </c>
+      <c r="D59" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" s="10" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B60" s="19">
+        <v>1</v>
+      </c>
+      <c r="C60" s="20">
+        <v>1</v>
+      </c>
+      <c r="D60" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B61" s="19">
+        <v>1</v>
+      </c>
+      <c r="C61" s="20">
+        <v>1</v>
+      </c>
+      <c r="D61" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="B62" s="19">
+        <v>1</v>
+      </c>
+      <c r="C62" s="20">
+        <v>1</v>
+      </c>
+      <c r="D62" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" s="10" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B63" s="19">
+        <v>1</v>
+      </c>
+      <c r="C63" s="20">
+        <v>1</v>
+      </c>
+      <c r="D63" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" s="10" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B64" s="19">
+        <v>1</v>
+      </c>
+      <c r="C64" s="20">
+        <v>1</v>
+      </c>
+      <c r="D64" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" s="10" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B65" s="19">
+        <v>1</v>
+      </c>
+      <c r="C65" s="20">
+        <v>1</v>
+      </c>
+      <c r="D65" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" s="10" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B66" s="19">
+        <v>1</v>
+      </c>
+      <c r="C66" s="20">
+        <v>1</v>
+      </c>
+      <c r="D66" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B67" s="19">
+        <v>1</v>
+      </c>
+      <c r="C67" s="20">
+        <v>1</v>
+      </c>
+      <c r="D67" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="B68" s="19">
+        <v>1</v>
+      </c>
+      <c r="C68" s="20">
+        <v>1</v>
+      </c>
+      <c r="D68" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" s="10" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B69" s="19">
+        <v>1</v>
+      </c>
+      <c r="C69" s="20">
+        <v>1</v>
+      </c>
+      <c r="D69" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B70" s="19">
+        <v>1</v>
+      </c>
+      <c r="C70" s="20">
+        <v>1</v>
+      </c>
+      <c r="D70" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" s="10" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B71" s="19">
+        <v>1</v>
+      </c>
+      <c r="C71" s="20">
+        <v>1</v>
+      </c>
+      <c r="D71" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" s="10" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B72" s="19">
+        <v>1</v>
+      </c>
+      <c r="C72" s="20">
+        <v>1</v>
+      </c>
+      <c r="D72" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" s="10" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B73" s="19">
+        <v>1</v>
+      </c>
+      <c r="C73" s="20">
+        <v>1</v>
+      </c>
+      <c r="D73" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" s="10" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B74" s="19">
+        <v>1</v>
+      </c>
+      <c r="C74" s="20">
+        <v>1</v>
+      </c>
+      <c r="D74" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" s="10" t="s">
+        <v>974</v>
+      </c>
+      <c r="B75" s="19">
+        <v>1</v>
+      </c>
+      <c r="C75" s="20">
+        <v>1</v>
+      </c>
+      <c r="D75" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" s="10" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B76" s="19">
+        <v>1</v>
+      </c>
+      <c r="C76" s="20">
+        <v>1</v>
+      </c>
+      <c r="D76" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" s="10" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20">
+        <v>1</v>
+      </c>
+      <c r="D77" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" s="10" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B78" s="19">
+        <v>1</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1</v>
+      </c>
+      <c r="D78" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" s="10" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B79" s="19">
+        <v>1</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1</v>
+      </c>
+      <c r="D79" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" s="10" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B80" s="19">
+        <v>1</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1</v>
+      </c>
+      <c r="D80" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" s="10" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B81" s="19">
+        <v>1</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1</v>
+      </c>
+      <c r="D81" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" s="10" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B82" s="19">
+        <v>1</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1</v>
+      </c>
+      <c r="D82" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" s="10" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B83" s="19">
+        <v>1</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1</v>
+      </c>
+      <c r="D83" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B84" s="19">
+        <v>1</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1</v>
+      </c>
+      <c r="D84" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B85" s="19">
+        <v>1</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1</v>
+      </c>
+      <c r="D85" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="B86" s="19">
+        <v>1</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1</v>
+      </c>
+      <c r="D86" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" s="10" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B87" s="19"/>
+      <c r="C87" s="20">
+        <v>1</v>
+      </c>
+      <c r="D87" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" s="19">
+        <v>1</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1</v>
+      </c>
+      <c r="D88" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B89" s="19">
+        <v>1</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1</v>
+      </c>
+      <c r="D89" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="B90" s="19">
+        <v>1</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1</v>
+      </c>
+      <c r="D90" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" s="10" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B91" s="19">
+        <v>1</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1</v>
+      </c>
+      <c r="D91" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="B92" s="19">
+        <v>1</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1</v>
+      </c>
+      <c r="D92" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" s="10" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B93" s="19">
+        <v>1</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1</v>
+      </c>
+      <c r="D93" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" s="10" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B94" s="19">
+        <v>1</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1</v>
+      </c>
+      <c r="D94" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95" s="10" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B95" s="19">
+        <v>1</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1</v>
+      </c>
+      <c r="D95" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" s="10" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B96" s="19">
+        <v>1</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1</v>
+      </c>
+      <c r="D96" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97" s="10" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B97" s="19">
+        <v>1</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1</v>
+      </c>
+      <c r="D97" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98" s="10" t="s">
+        <v>945</v>
+      </c>
+      <c r="B98" s="19">
+        <v>1</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1</v>
+      </c>
+      <c r="D98" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99" s="10" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B99" s="19">
+        <v>1</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1</v>
+      </c>
+      <c r="D99" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" s="10" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B100" s="19">
+        <v>1</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1</v>
+      </c>
+      <c r="D100" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101" s="10" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B101" s="19"/>
+      <c r="C101" s="20">
+        <v>1</v>
+      </c>
+      <c r="D101" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102" s="10" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B102" s="19">
+        <v>1</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1</v>
+      </c>
+      <c r="D102" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="B103" s="19">
+        <v>1</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1</v>
+      </c>
+      <c r="D103" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104" s="10" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B104" s="19">
+        <v>1</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1</v>
+      </c>
+      <c r="D104" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105" s="10" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B105" s="19">
+        <v>1</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1</v>
+      </c>
+      <c r="D105" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A106" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B106" s="19">
+        <v>1</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1</v>
+      </c>
+      <c r="D106" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B107" s="19">
+        <v>1</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1</v>
+      </c>
+      <c r="D107" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" s="10" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B108" s="19">
+        <v>1</v>
+      </c>
+      <c r="C108" s="20">
+        <v>1</v>
+      </c>
+      <c r="D108" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B109" s="19">
+        <v>1</v>
+      </c>
+      <c r="C109" s="20">
+        <v>1</v>
+      </c>
+      <c r="D109" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B110" s="19">
+        <v>1</v>
+      </c>
+      <c r="C110" s="20">
+        <v>1</v>
+      </c>
+      <c r="D110" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111" s="10" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B111" s="19">
+        <v>1</v>
+      </c>
+      <c r="C111" s="20">
+        <v>1</v>
+      </c>
+      <c r="D111" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B112" s="19">
+        <v>1</v>
+      </c>
+      <c r="C112" s="20">
+        <v>1</v>
+      </c>
+      <c r="D112" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A113" s="10" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B113" s="19">
+        <v>1</v>
+      </c>
+      <c r="C113" s="20">
+        <v>1</v>
+      </c>
+      <c r="D113" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A114" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B114" s="19">
+        <v>1</v>
+      </c>
+      <c r="C114" s="20">
+        <v>1</v>
+      </c>
+      <c r="D114" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A115" s="10" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B115" s="19">
+        <v>1</v>
+      </c>
+      <c r="C115" s="20">
+        <v>1</v>
+      </c>
+      <c r="D115" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A116" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B116" s="19">
+        <v>1</v>
+      </c>
+      <c r="C116" s="20">
+        <v>1</v>
+      </c>
+      <c r="D116" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A117" s="10" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B117" s="19">
+        <v>1</v>
+      </c>
+      <c r="C117" s="20">
+        <v>1</v>
+      </c>
+      <c r="D117" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A118" s="10" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B118" s="19">
+        <v>1</v>
+      </c>
+      <c r="C118" s="20">
+        <v>1</v>
+      </c>
+      <c r="D118" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A119" s="10" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B119" s="19">
+        <v>1</v>
+      </c>
+      <c r="C119" s="20">
+        <v>1</v>
+      </c>
+      <c r="D119" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A120" s="10" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B120" s="19">
+        <v>1</v>
+      </c>
+      <c r="C120" s="20">
+        <v>1</v>
+      </c>
+      <c r="D120" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121" s="10" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B121" s="19">
+        <v>1</v>
+      </c>
+      <c r="C121" s="20">
+        <v>1</v>
+      </c>
+      <c r="D121" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A122" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B122" s="19">
+        <v>1</v>
+      </c>
+      <c r="C122" s="20">
+        <v>1</v>
+      </c>
+      <c r="D122" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A123" s="10" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B123" s="19">
+        <v>1</v>
+      </c>
+      <c r="C123" s="20">
+        <v>1</v>
+      </c>
+      <c r="D123" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A124" s="10" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B124" s="19">
+        <v>1</v>
+      </c>
+      <c r="C124" s="20">
+        <v>1</v>
+      </c>
+      <c r="D124" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A125" s="10" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B125" s="19">
+        <v>1</v>
+      </c>
+      <c r="C125" s="20">
+        <v>1</v>
+      </c>
+      <c r="D125" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A126" s="10" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B126" s="19">
+        <v>1</v>
+      </c>
+      <c r="C126" s="20">
+        <v>1</v>
+      </c>
+      <c r="D126" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A127" s="10" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B127" s="19">
+        <v>1</v>
+      </c>
+      <c r="C127" s="20">
+        <v>1</v>
+      </c>
+      <c r="D127" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A128" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B128" s="19">
+        <v>1</v>
+      </c>
+      <c r="C128" s="20">
+        <v>1</v>
+      </c>
+      <c r="D128" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A129" s="10" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B129" s="19">
+        <v>1</v>
+      </c>
+      <c r="C129" s="20">
+        <v>1</v>
+      </c>
+      <c r="D129" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A130" s="10" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B130" s="19"/>
+      <c r="C130" s="20">
+        <v>1</v>
+      </c>
+      <c r="D130" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A131" s="10" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B131" s="19">
+        <v>1</v>
+      </c>
+      <c r="C131" s="20">
+        <v>1</v>
+      </c>
+      <c r="D131" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A132" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B132" s="19"/>
+      <c r="C132" s="20">
+        <v>1</v>
+      </c>
+      <c r="D132" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A133" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133" s="19">
+        <v>1</v>
+      </c>
+      <c r="C133" s="20">
+        <v>1</v>
+      </c>
+      <c r="D133" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A134" s="10" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B134" s="19">
+        <v>1</v>
+      </c>
+      <c r="C134" s="20">
+        <v>1</v>
+      </c>
+      <c r="D134" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A135" s="10" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B135" s="19">
+        <v>1</v>
+      </c>
+      <c r="C135" s="20">
+        <v>1</v>
+      </c>
+      <c r="D135" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A136" s="10" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B136" s="19">
+        <v>1</v>
+      </c>
+      <c r="C136" s="20">
+        <v>1</v>
+      </c>
+      <c r="D136" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A137" s="10" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B137" s="19">
+        <v>1</v>
+      </c>
+      <c r="C137" s="20">
+        <v>1</v>
+      </c>
+      <c r="D137" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A138" s="10" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B138" s="19">
+        <v>1</v>
+      </c>
+      <c r="C138" s="20">
+        <v>1</v>
+      </c>
+      <c r="D138" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A139" s="10" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B139" s="19">
+        <v>1</v>
+      </c>
+      <c r="C139" s="20">
+        <v>1</v>
+      </c>
+      <c r="D139" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A140" s="10" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B140" s="19">
+        <v>1</v>
+      </c>
+      <c r="C140" s="20">
+        <v>1</v>
+      </c>
+      <c r="D140" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A141" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B141" s="19">
+        <v>1</v>
+      </c>
+      <c r="C141" s="20">
+        <v>1</v>
+      </c>
+      <c r="D141" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A142" s="10" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B142" s="19">
+        <v>1</v>
+      </c>
+      <c r="C142" s="20">
+        <v>1</v>
+      </c>
+      <c r="D142" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A143" s="12" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B143" s="15">
+        <v>129</v>
+      </c>
+      <c r="C143" s="16">
+        <v>138</v>
+      </c>
+      <c r="D143" s="13">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C185"/>
+  <sheetViews>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B1" t="e">
+        <f>VLOOKUP(A1,$C$1:$C$136,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="21" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B2" t="e">
+        <f t="shared" ref="B2:B65" si="0">VLOOKUP(A2,$C$1:$C$136,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="21" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>לָגוּר</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="21" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>לָקוּם</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="21" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>לָבוֹא</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="21" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>לָרוּץ</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="21" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>לָנוּחַ</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="21" t="s">
+        <v>3979</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>לָטוּס</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="21" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="21" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>לָשִׁיר</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="21" t="s">
+        <v>3982</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>לָרִיב</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="21" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>לָזוּז</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="21" t="s">
+        <v>3984</v>
+      </c>
+      <c r="B13" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="21" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>לוֹמַר</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="21" t="s">
+        <v>3986</v>
+      </c>
+      <c r="B15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>4087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="21" t="s">
+        <v>3987</v>
+      </c>
+      <c r="B16" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="21" t="s">
+        <v>3988</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>לָלֶכֶת</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="21" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B18" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="21" t="s">
+        <v>3990</v>
+      </c>
+      <c r="B19" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="21" t="s">
+        <v>3991</v>
+      </c>
+      <c r="B20" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="21" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B21" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="21" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B22" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="21" t="s">
+        <v>3994</v>
+      </c>
+      <c r="B23" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="21" t="s">
+        <v>3995</v>
+      </c>
+      <c r="B24" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="21" t="s">
+        <v>3996</v>
+      </c>
+      <c r="B25" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="21" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B26" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="21" t="s">
+        <v>3998</v>
+      </c>
+      <c r="B27" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="21" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B28" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="21" t="s">
+        <v>4000</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>לִרְכֹּב</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="21" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B30" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="21" t="s">
+        <v>4002</v>
+      </c>
+      <c r="B31" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="21" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>לִקְנוֹת</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="21" t="s">
+        <v>4004</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>לַעֲלוֹת</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="21" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>לִרְאוֹת</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="21" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>לַעֲנוֹת</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="21" t="s">
+        <v>4007</v>
+      </c>
+      <c r="B36" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="21" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>לִרְצוֹת</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="21" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>לְחַפֵּשׂ</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="21" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>לְבַקֵּשׁ</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="21" t="s">
+        <v>4011</v>
+      </c>
+      <c r="B40" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="21" t="s">
+        <v>4012</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>לְדַבֵּר</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="21" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>לְהַסְבִּיר</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="21" t="s">
+        <v>4014</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>לְהַזְמִין</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="21" t="s">
+        <v>4015</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>לְהַמְשִׁיךְ</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="21" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>לְהַכְנִיס</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="21" t="s">
+        <v>4017</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>לְהִתְקַשֵּׁר</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="21" t="s">
+        <v>4018</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>לְהִתְלַבֵּשׁ</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="21" t="s">
+        <v>4019</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>לְהִתְפַּלֵּל</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="21" t="s">
+        <v>4020</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>לְהִתְרַחֵץ</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="21" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>לְהִתְקַדֵּם</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="21" t="s">
+        <v>4022</v>
+      </c>
+      <c r="B51" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="21" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B52" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="21" t="s">
+        <v>4024</v>
+      </c>
+      <c r="B53" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="21" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B54" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="21" t="s">
+        <v>4026</v>
+      </c>
+      <c r="B55" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="21" t="s">
+        <v>4027</v>
+      </c>
+      <c r="B56" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="21" t="s">
+        <v>4028</v>
+      </c>
+      <c r="B57" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="21" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B58" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="21" t="s">
+        <v>4030</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>לָדַעַת</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="21" t="s">
+        <v>4031</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>לְבַקֵּר</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="21" t="s">
+        <v>4032</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>לְהַרְגִּישׁ</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="21" t="s">
+        <v>4033</v>
+      </c>
+      <c r="B62" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="21" t="s">
+        <v>4034</v>
+      </c>
+      <c r="B63" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="21" t="s">
+        <v>4035</v>
+      </c>
+      <c r="B64" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="21" t="s">
+        <v>4036</v>
+      </c>
+      <c r="B65" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="21" t="s">
+        <v>4037</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" ref="B66:B129" si="1">VLOOKUP(A66,$C$1:$C$136,1,0)</f>
+        <v>לְנַהֵל</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="21" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="1"/>
+        <v>לְהַנְדֵּס</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="21" t="s">
+        <v>4039</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>לְהַפְקִיד</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="21" t="s">
+        <v>4040</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>לִחְיוֹת</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>4083</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="21" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B70" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="21" t="s">
+        <v>4042</v>
+      </c>
+      <c r="B71" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="21" t="s">
+        <v>4043</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>לַחֲזֹר</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="21" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>לְקַוּוֹת</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="21" t="s">
+        <v>4045</v>
+      </c>
+      <c r="B74" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="21" t="s">
+        <v>4046</v>
+      </c>
+      <c r="B75" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="21" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>לְהַכִּיר</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="21" t="s">
+        <v>4048</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>לְהַגִּיד</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="21" t="s">
+        <v>4049</v>
+      </c>
+      <c r="B78" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="21" t="s">
+        <v>4050</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>לְהַתְחִיל</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="21" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>לְבַשֵּׁל</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="21" t="s">
+        <v>4052</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>לְהָכִין</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="21" t="s">
+        <v>4053</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>לְסַפֵּר</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="21" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>לְשַׂחֵק</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="21" t="s">
+        <v>4055</v>
+      </c>
+      <c r="B84" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="21" t="s">
+        <v>4056</v>
+      </c>
+      <c r="B85" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="21" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>לְהַגִּיעַ</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="21" t="s">
+        <v>4058</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>לְקַבֵּל</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="21" t="s">
+        <v>4059</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>לָתֵת</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="21" t="s">
+        <v>4060</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>לִבְנוֹת</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="21" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>לְלַמֵּד</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="21" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B91" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="21" t="s">
+        <v>4063</v>
+      </c>
+      <c r="B92" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="21" t="s">
+        <v>4064</v>
+      </c>
+      <c r="B93" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="21" t="s">
+        <v>4065</v>
+      </c>
+      <c r="B94" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="21" t="s">
+        <v>4066</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>לְהִתְחַתֵּן</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="21" t="s">
+        <v>4067</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>לְהַסְכִּים</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="21" t="s">
+        <v>4068</v>
+      </c>
+      <c r="B97" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="21" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B98" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="21" t="s">
+        <v>4070</v>
+      </c>
+      <c r="B99" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="21" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B100" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="21" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>לָשֶׁבֶת</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="21" t="s">
+        <v>4073</v>
+      </c>
+      <c r="B102" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>4198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="21" t="s">
+        <v>4074</v>
+      </c>
+      <c r="B103" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="21" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B104" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="21" t="s">
+        <v>4076</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>לָקַחַת</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="21" t="s">
+        <v>4077</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>לְכַבֵּס</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="21" t="s">
+        <v>4078</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>לְצַלֵּם</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="21" t="s">
+        <v>4079</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v>לְפַטֵּר</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="21" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>לְטַפֵּל</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="21" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v>לְנַגֵּן</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="21" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>לְתַקֵּן</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="21" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v>לְסַדֵּר</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="21" t="s">
+        <v>4084</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>לְהִשְׁתַּמֵּשׁ</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="21" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v>לְתַרְגֵּם</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="21" t="s">
+        <v>4086</v>
+      </c>
+      <c r="B115" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="21" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="1"/>
+        <v>לְהִסְתַּכֵּל</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="21" t="s">
+        <v>4088</v>
+      </c>
+      <c r="B117" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="21" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B118" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="21" t="s">
+        <v>4090</v>
+      </c>
+      <c r="B119" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="21" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="1"/>
+        <v>לְהַשְׁפִּיעַ</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="21" t="s">
+        <v>4092</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="1"/>
+        <v>לְהַמְלִיץ</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="21" t="s">
+        <v>4093</v>
+      </c>
+      <c r="B122" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="21" t="s">
+        <v>4094</v>
+      </c>
+      <c r="B123" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124" s="21" t="s">
+        <v>4095</v>
+      </c>
+      <c r="B124" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125" s="21" t="s">
+        <v>4096</v>
+      </c>
+      <c r="B125" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126" s="21" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B126" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127" s="21" t="s">
+        <v>4098</v>
+      </c>
+      <c r="B127" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128" s="21" t="s">
+        <v>4099</v>
+      </c>
+      <c r="B128" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A129" s="21" t="s">
+        <v>4100</v>
+      </c>
+      <c r="B129" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130" s="21" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B130" t="e">
+        <f t="shared" ref="B130:B184" si="2">VLOOKUP(A130,$C$1:$C$136,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131" s="21" t="s">
+        <v>4102</v>
+      </c>
+      <c r="B131" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132" s="21" t="s">
+        <v>4103</v>
+      </c>
+      <c r="B132" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>3977</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A133" s="21" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B133" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A134" s="21" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B134" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A135" s="21" t="s">
+        <v>4106</v>
+      </c>
+      <c r="B135" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A136" s="21" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B136" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A137" s="21" t="s">
+        <v>4108</v>
+      </c>
+      <c r="B137" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C137" s="23"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A138" s="21" t="s">
+        <v>4109</v>
+      </c>
+      <c r="B138" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C138" s="23"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A139" s="21" t="s">
+        <v>4110</v>
+      </c>
+      <c r="B139" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C139" s="23"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A140" s="21" t="s">
+        <v>4111</v>
+      </c>
+      <c r="B140" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C140" s="23"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A141" s="21" t="s">
+        <v>4112</v>
+      </c>
+      <c r="B141" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C141" s="23"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A142" s="21" t="s">
+        <v>4113</v>
+      </c>
+      <c r="B142" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C142" s="23"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A143" s="21" t="s">
+        <v>4114</v>
+      </c>
+      <c r="B143" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C143" s="23"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A144" s="21" t="s">
+        <v>4115</v>
+      </c>
+      <c r="B144" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C144" s="23"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A145" s="21" t="s">
+        <v>4116</v>
+      </c>
+      <c r="B145" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C145" s="23"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A146" s="21" t="s">
+        <v>4117</v>
+      </c>
+      <c r="B146" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C146" s="23"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A147" s="21" t="s">
+        <v>4118</v>
+      </c>
+      <c r="B147" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C147" s="23"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A148" s="21" t="s">
+        <v>4119</v>
+      </c>
+      <c r="B148" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C148" s="23"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A149" s="21" t="s">
+        <v>4120</v>
+      </c>
+      <c r="B149" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C149" s="23"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A150" s="21" t="s">
+        <v>4121</v>
+      </c>
+      <c r="B150" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C150" s="23"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A151" s="21" t="s">
+        <v>4122</v>
+      </c>
+      <c r="B151" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C151" s="23"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A152" s="21" t="s">
+        <v>4123</v>
+      </c>
+      <c r="B152" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C152" s="23"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A153" s="21" t="s">
+        <v>4124</v>
+      </c>
+      <c r="B153" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C153" s="23"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A154" s="21" t="s">
+        <v>4125</v>
+      </c>
+      <c r="B154" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C154" s="23"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A155" s="21" t="s">
+        <v>4126</v>
+      </c>
+      <c r="B155" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C155" s="23"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A156" s="21" t="s">
+        <v>4127</v>
+      </c>
+      <c r="B156" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C156" s="23"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A157" s="21" t="s">
+        <v>4128</v>
+      </c>
+      <c r="B157" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C157" s="23"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A158" s="21" t="s">
+        <v>4129</v>
+      </c>
+      <c r="B158" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C158" s="23"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A159" s="21" t="s">
+        <v>4130</v>
+      </c>
+      <c r="B159" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C159" s="23"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A160" s="21" t="s">
+        <v>4131</v>
+      </c>
+      <c r="B160" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C160" s="23"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A161" s="21" t="s">
+        <v>4132</v>
+      </c>
+      <c r="B161" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C161" s="23"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A162" s="21" t="s">
+        <v>4133</v>
+      </c>
+      <c r="B162" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C162" s="23"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A163" s="21" t="s">
+        <v>4134</v>
+      </c>
+      <c r="B163" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C163" s="23"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A164" s="21" t="s">
+        <v>4135</v>
+      </c>
+      <c r="B164" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C164" s="23"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A165" s="21" t="s">
+        <v>4136</v>
+      </c>
+      <c r="B165" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C165" s="23"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A166" s="21" t="s">
+        <v>4137</v>
+      </c>
+      <c r="B166" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C166" s="23"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A167" s="21" t="s">
+        <v>4138</v>
+      </c>
+      <c r="B167" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C167" s="23"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A168" s="21" t="s">
+        <v>4139</v>
+      </c>
+      <c r="B168" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C168" s="23"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A169" s="21" t="s">
+        <v>4140</v>
+      </c>
+      <c r="B169" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C169" s="23"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A170" s="21" t="s">
+        <v>4141</v>
+      </c>
+      <c r="B170" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C170" s="23"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A171" s="21" t="s">
+        <v>4142</v>
+      </c>
+      <c r="B171" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C171" s="23"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A172" s="21" t="s">
+        <v>4143</v>
+      </c>
+      <c r="B172" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C172" s="23"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A173" s="21" t="s">
+        <v>4144</v>
+      </c>
+      <c r="B173" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C173" s="23"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A174" s="21" t="s">
+        <v>4145</v>
+      </c>
+      <c r="B174" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C174" s="23"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A175" s="21" t="s">
+        <v>4146</v>
+      </c>
+      <c r="B175" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C175" s="23"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A176" s="21" t="s">
+        <v>4147</v>
+      </c>
+      <c r="B176" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C176" s="23"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A177" s="21" t="s">
+        <v>4148</v>
+      </c>
+      <c r="B177" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C177" s="23"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A178" s="21" t="s">
+        <v>4149</v>
+      </c>
+      <c r="B178" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C178" s="23"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A179" s="21" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B179" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C179" s="23"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A180" s="21" t="s">
+        <v>4151</v>
+      </c>
+      <c r="B180" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C180" s="23"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A181" s="21" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B181" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C181" s="23"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A182" s="21" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B182" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C182" s="23"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A183" s="21" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B183" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C183" s="23"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A184" s="21" t="s">
+        <v>4155</v>
+      </c>
+      <c r="B184" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C184" s="23"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C185" s="23"/>
+    </row>
+  </sheetData>
+  <sortState ref="C2:C321">
+    <sortCondition ref="C2:C321"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B268"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B268" sqref="A1:B268"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="23.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>423</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>452</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>481</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>510</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>539</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>568</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>597</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>626</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>655</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>684</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>713</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>742</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>771</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>800</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>829</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>858</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>887</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>916</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>945</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>974</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>26</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>55</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>83</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>111</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>167</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>195</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>223</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>251</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>279</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>307</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>336</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>365</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>394</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>423</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>452</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>481</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>510</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>539</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>568</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>597</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>626</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>655</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>684</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>713</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>742</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>771</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>800</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>829</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>858</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>887</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>916</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>945</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>974</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B183" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B199" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B201" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B204" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B206" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B207" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B208" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B209" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B210" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B211" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B213" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B214" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B216" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B217" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B218" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B219" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B220" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B221" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B222" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B223" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B224" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B225" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B226" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B227" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B228" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B229" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B230" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B231" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B232" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B233" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B234" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B235" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B236" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B237" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B238" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B239" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B240" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B241" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B242" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B243" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B244" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B245" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B246" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B247" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B248" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B249" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B250" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B251" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B252" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B253" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B254" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B255" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B256" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B257" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B258" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B259" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B260" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B261" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B262" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A263" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B263" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B264" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B265" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B266" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A267" s="2" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B267" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A268" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B268" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>